--- a/templates/events/pdfs/night400k-2018.xlsx
+++ b/templates/events/pdfs/night400k-2018.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michal/Dropbox/Sys/will-rando/templates/events/pdfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3197F6A5-4737-5A47-9CBA-E0B6DB1641D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="460" windowWidth="18880" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="18880" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cuesheet (3)" sheetId="1" r:id="rId1"/>
+    <sheet name="Cues" sheetId="1" r:id="rId1"/>
+    <sheet name="Time Plan" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'cuesheet (3)'!$A$1:$D$171</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'cuesheet (3)'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Cues!$A$1:$D$171</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Time Plan'!$C$5:$H$18</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Cues!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="216">
   <si>
     <t>Elevation (ft)</t>
   </si>
@@ -79,9 +82,6 @@
   </si>
   <si>
     <t>bc Washburn St</t>
-  </si>
-  <si>
-    <t>W Bishop Way.  Chevron on left has food and restrooms</t>
   </si>
   <si>
     <t>Main St</t>
@@ -280,9 +280,6 @@
     <t>Pacific Ave</t>
   </si>
   <si>
-    <t>Forest Grove: Open Control.  Safeway open at 6.  Maggies Buns (a few blocks further near Pacific and Main) open at 7.  Plaid Pantry at 19th and Elm open 24 hours.  Reverse course to continue.  [Open 01:55, close 09:24]</t>
-  </si>
-  <si>
     <t>Maple St</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>OR-99W S/Pacific Hwy W</t>
   </si>
   <si>
-    <t>Open Control: Amity.  Amity Market, Chevron on right.  [Open 03:42, close 13:12]</t>
-  </si>
-  <si>
     <t>OR-153 E/Nursery St SE</t>
   </si>
   <si>
@@ -328,21 +322,12 @@
     <t>bc  Oak Grove Rd</t>
   </si>
   <si>
-    <t>onto Bethel Rd/Lincoln-Zena Rd</t>
-  </si>
-  <si>
     <t>bc Zena Rd</t>
   </si>
   <si>
-    <t>Oak Grove Rd (bear right)</t>
-  </si>
-  <si>
     <t>Oak Grove Rd</t>
   </si>
   <si>
-    <t>Gravel path parallel Hwy 22</t>
-  </si>
-  <si>
     <t>Bridge across Hwy 22, then right</t>
   </si>
   <si>
@@ -352,13 +337,7 @@
     <t>Greenwood Rd S</t>
   </si>
   <si>
-    <t>24 hour bakery</t>
-  </si>
-  <si>
     <t>OR-51 S</t>
-  </si>
-  <si>
-    <t>Open Control: Independence.  Mootharts Market, others.  Public restrooms on left.  [Open 04:45, close 15:28]</t>
   </si>
   <si>
     <t>onto Corvallis Rd</t>
@@ -465,9 +444,6 @@
     <t>toward bike bridge ramp</t>
   </si>
   <si>
-    <t>bridge ramp; across river, then bear right onto 4th Ave</t>
-  </si>
-  <si>
     <t>Pearl Street</t>
   </si>
   <si>
@@ -598,26 +574,131 @@
     <t>S</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Jefferson: Open Control.  Center Market open 24hrs.  [Open 22:42, close 02:08]</t>
-  </si>
-  <si>
     <t>Begin at Falling Sky Brew Pub, 13th and Oak Alley. East on 13th. Open 20:00, close 21:00.</t>
   </si>
   <si>
     <t>L: Left, R: Right, S: Straight, C: Control, bc: becomes</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Brownsville</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Food stop</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>Leg</t>
+  </si>
+  <si>
+    <t>W Bishop Way.  Chevron on left  has food and restrooms, open till 11.</t>
+  </si>
+  <si>
+    <t>Jeferson: Open Control. 
+Center Market open 24 hours.  [Open 22:42, close 02:08]</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Forest Grove: Open Control.  Safeway open at 6.   Plaid Pantry at 19th and Elm open 24 hours.  From Safeway, cross parking lot to reverse course on Pacific Hwy (one-way).  [Open 01:55, close 09:24]</t>
+  </si>
+  <si>
+    <t>Open Control: Amity.  Amity Market, Common Cup, Chevron on right.  [Open 03:42, close 13:12]</t>
+  </si>
+  <si>
+    <t>onto Bethel Rd/Lincoln-Zena Rd; end first gravel section</t>
+  </si>
+  <si>
+    <t>Oak Grove Rd (bear right).  Gravel</t>
+  </si>
+  <si>
+    <t>End second gravel section (approximate)</t>
+  </si>
+  <si>
+    <t>Path (sidewalk) parallel Hwy 22</t>
+  </si>
+  <si>
+    <t>Open Control: Independence.  Mootharts Market (some hot food), other markets and fast food.  Public restrooms on left, across the street from Mootharts  [Open 04:45, close 15:28]</t>
+  </si>
+  <si>
+    <t>Peoria Park has vault toilet; no water</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Arrive</t>
+  </si>
+  <si>
+    <t>Depart</t>
+  </si>
+  <si>
+    <t>Instructions:  Set overall speed target and speed adjustment to recalculate times</t>
+  </si>
+  <si>
+    <t>Default mph</t>
+  </si>
+  <si>
+    <t>Spd Adj</t>
+  </si>
+  <si>
+    <t>MPH</t>
+  </si>
+  <si>
+    <t>Adjust default MPH to affect all speeds, or Spd Adj to adjust speed of one segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause times are planned time to spend at that stop. </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Gravel section --- slower</t>
+  </si>
+  <si>
+    <t>Bike path --- slower</t>
+  </si>
+  <si>
+    <t>Flat and cool --- faster</t>
+  </si>
+  <si>
+    <t>(Why faster or slower)</t>
+  </si>
+  <si>
+    <t>Only columns with green headers (Leg through Depart time) are printed</t>
+  </si>
+  <si>
+    <t>CTRL</t>
+  </si>
+  <si>
+    <t>bridge ramp; across river, then  left onto 4th Ave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,6 +710,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -659,8 +741,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,8 +776,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -688,13 +797,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -706,50 +952,109 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1017,11 +1322,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,79 +1338,79 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="6">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>189</v>
+      <c r="C2" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>B3-B2</f>
+        <f t="shared" ref="A3:A34" si="0">B3-B2</f>
         <v>0.16</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="33">
         <v>0.16</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E3">
         <v>426.51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A67" si="0">B4-B3</f>
+        <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="33">
         <v>0.85</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="E4">
         <v>434.06</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1113,20 +1418,20 @@
         <f t="shared" si="0"/>
         <v>0.23000000000000009</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="33">
         <v>1.08</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E5">
         <v>429.79</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1134,20 +1439,20 @@
         <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="33">
         <v>1.28</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E6">
         <v>408.46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1155,20 +1460,20 @@
         <f t="shared" si="0"/>
         <v>0.10999999999999988</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="33">
         <v>1.39</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="E7">
         <v>422.9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -1176,13 +1481,13 @@
         <f t="shared" si="0"/>
         <v>0.3600000000000001</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="33">
         <v>1.75</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E8">
@@ -1194,20 +1499,20 @@
         <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="33">
         <v>2.73</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E9">
         <v>421.59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1215,20 +1520,20 @@
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="33">
         <v>2.86</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E10">
         <v>419.29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1236,20 +1541,20 @@
         <f t="shared" si="0"/>
         <v>1.0700000000000003</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="33">
         <v>3.93</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E11">
         <v>415.03</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -1257,13 +1562,13 @@
         <f t="shared" si="0"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="33">
         <v>4.58</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E12">
@@ -1275,20 +1580,20 @@
         <f t="shared" si="0"/>
         <v>3.76</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="33">
         <v>8.34</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E13">
         <v>400.59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1296,20 +1601,20 @@
         <f t="shared" si="0"/>
         <v>0.48000000000000043</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="33">
         <v>8.82</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>12</v>
       </c>
       <c r="E14">
         <v>392.72</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1317,20 +1622,20 @@
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="33">
         <v>18.57</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E15">
         <v>323.49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -1338,13 +1643,13 @@
         <f t="shared" si="0"/>
         <v>3.6699999999999982</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="33">
         <v>22.24</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>14</v>
       </c>
       <c r="E16">
@@ -1356,41 +1661,41 @@
         <f t="shared" si="0"/>
         <v>7.110000000000003</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="33">
         <v>29.35</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E17">
         <v>329.72</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>0.36999999999999744</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="35">
         <v>29.72</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
+      <c r="C18" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>188</v>
       </c>
       <c r="E18">
         <v>333.99</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1398,20 +1703,20 @@
         <f t="shared" si="0"/>
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="33">
         <v>29.78</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
+      <c r="C19" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="E19">
         <v>334.32</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -1419,14 +1724,14 @@
         <f t="shared" si="0"/>
         <v>0.54999999999999716</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="33">
         <v>30.33</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
+      <c r="C20" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="E20">
         <v>352.69</v>
@@ -1437,20 +1742,20 @@
         <f t="shared" si="0"/>
         <v>2.0000000000003126E-2</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="33">
         <v>30.35</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
+      <c r="C21" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="E21">
         <v>354.33</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1458,20 +1763,20 @@
         <f t="shared" si="0"/>
         <v>0.47999999999999687</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="33">
         <v>30.83</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>19</v>
+      <c r="C22" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="E22">
         <v>355.31</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1479,20 +1784,20 @@
         <f t="shared" si="0"/>
         <v>4.7600000000000051</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="33">
         <v>35.590000000000003</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>20</v>
+      <c r="C23" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="E23">
         <v>287.07</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -1500,14 +1805,14 @@
         <f t="shared" si="0"/>
         <v>2.5699999999999932</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="33">
         <v>38.159999999999997</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
+      <c r="C24" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="E24">
         <v>318.89999999999998</v>
@@ -1518,20 +1823,20 @@
         <f t="shared" si="0"/>
         <v>2.3200000000000003</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="33">
         <v>40.479999999999997</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
+      <c r="C25" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="E25">
         <v>304.45999999999998</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1539,20 +1844,20 @@
         <f t="shared" si="0"/>
         <v>1.1100000000000065</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="33">
         <v>41.59</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>23</v>
+      <c r="C26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="E26">
         <v>298.56</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1560,20 +1865,20 @@
         <f t="shared" si="0"/>
         <v>0.25999999999999801</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="33">
         <v>41.85</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>24</v>
+      <c r="C27" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="E27">
         <v>304.13</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -1581,14 +1886,14 @@
         <f t="shared" si="0"/>
         <v>3.1799999999999997</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="33">
         <v>45.03</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>25</v>
+      <c r="C28" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="E28">
         <v>283.45999999999998</v>
@@ -1599,20 +1904,20 @@
         <f t="shared" si="0"/>
         <v>0.58999999999999631</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="33">
         <v>45.62</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>26</v>
+      <c r="C29" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="E29">
         <v>275.92</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1620,20 +1925,20 @@
         <f t="shared" si="0"/>
         <v>2.1700000000000017</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="33">
         <v>47.79</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>27</v>
+      <c r="C30" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="E30">
         <v>253.94</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1641,20 +1946,20 @@
         <f t="shared" si="0"/>
         <v>0.28000000000000114</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="33">
         <v>48.07</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>28</v>
+      <c r="C31" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="E31">
         <v>258.2</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -1662,14 +1967,14 @@
         <f t="shared" si="0"/>
         <v>1.0700000000000003</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="33">
         <v>49.14</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>29</v>
+      <c r="C32" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="E32">
         <v>260.5</v>
@@ -1680,20 +1985,20 @@
         <f t="shared" si="0"/>
         <v>0.10000000000000142</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="33">
         <v>49.24</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>30</v>
+      <c r="C33" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="E33">
         <v>261.81</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1701,137 +2006,137 @@
         <f t="shared" si="0"/>
         <v>0.92999999999999972</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="33">
         <v>50.17</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>31</v>
+      <c r="C34" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="E34">
         <v>252.95</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A35:A66" si="1">B35-B34</f>
         <v>2.6799999999999997</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="33">
         <v>52.85</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>32</v>
+      <c r="C35" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="E35">
         <v>271</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9200000000000017</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="33">
         <v>55.77</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>33</v>
+      <c r="C36" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="E36">
         <v>224.08</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <f t="shared" si="0"/>
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <f t="shared" si="1"/>
         <v>1.4299999999999997</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="31">
         <v>57.2</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>188</v>
+      <c r="C37" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="E37">
         <v>232.61</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35999999999999943</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="33">
         <v>57.56</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>34</v>
+      <c r="C38" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="E38">
         <v>233.92</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14000000000000057</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="33">
         <v>57.7</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>35</v>
+      <c r="C39" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="E39">
         <v>241.8</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64999999999999858</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="33">
         <v>58.35</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>36</v>
+      <c r="C40" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="E40">
         <v>246.72</v>
@@ -1839,17 +2144,17 @@
     </row>
     <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85000000000000142</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="33">
         <v>59.2</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>37</v>
+      <c r="C41" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="E41">
         <v>259.83999999999997</v>
@@ -1857,17 +2162,17 @@
     </row>
     <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.75</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="33">
         <v>65.95</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>38</v>
+      <c r="C42" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="E42">
         <v>321.19</v>
@@ -1875,17 +2180,17 @@
     </row>
     <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73999999999999488</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="33">
         <v>66.69</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>39</v>
+      <c r="C43" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="E43">
         <v>305.77</v>
@@ -1893,17 +2198,17 @@
     </row>
     <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3700000000000045</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="33">
         <v>68.06</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>40</v>
+      <c r="C44" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="E44">
         <v>283.14</v>
@@ -1911,17 +2216,17 @@
     </row>
     <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23999999999999488</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="33">
         <v>68.3</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>41</v>
+      <c r="C45" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="E45">
         <v>288.70999999999998</v>
@@ -1929,17 +2234,17 @@
     </row>
     <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.519999999999996</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="33">
         <v>69.819999999999993</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>42</v>
+      <c r="C46" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="E46">
         <v>261.14999999999998</v>
@@ -1947,17 +2252,17 @@
     </row>
     <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1300000000000097</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="33">
         <v>70.95</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>43</v>
+      <c r="C47" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="E47">
         <v>299.87</v>
@@ -1965,17 +2270,17 @@
     </row>
     <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8299999999999983</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="33">
         <v>72.78</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>44</v>
+      <c r="C48" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="E48">
         <v>224.41</v>
@@ -1983,33 +2288,35 @@
     </row>
     <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000057</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="33">
         <v>73.930000000000007</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>45</v>
+      <c r="C49" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="E49">
         <v>209.32</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <f t="shared" si="0"/>
+      <c r="A50" s="7">
+        <f t="shared" si="1"/>
         <v>1.3799999999999955</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="35">
         <v>75.31</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11" t="s">
-        <v>46</v>
+      <c r="C50" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="E50">
         <v>186.68</v>
@@ -2017,17 +2324,17 @@
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62000000000000455</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="33">
         <v>75.930000000000007</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>47</v>
+      <c r="C51" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="E51">
         <v>185.04</v>
@@ -2035,17 +2342,17 @@
     </row>
     <row r="52" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10999999999999943</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="33">
         <v>76.040000000000006</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>48</v>
+      <c r="C52" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="E52">
         <v>183.4</v>
@@ -2053,17 +2360,17 @@
     </row>
     <row r="53" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15999999999999659</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="33">
         <v>76.2</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>49</v>
+      <c r="C53" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="E53">
         <v>183.73</v>
@@ -2071,33 +2378,35 @@
     </row>
     <row r="54" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78999999999999204</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="33">
         <v>76.989999999999995</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>50</v>
+      <c r="C54" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="E54">
         <v>172.57</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <f t="shared" si="0"/>
+      <c r="A55" s="7">
+        <f t="shared" si="1"/>
         <v>0.14000000000000057</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="35">
         <v>77.13</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11" t="s">
-        <v>51</v>
+      <c r="C55" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="E55">
         <v>173.23</v>
@@ -2105,17 +2414,17 @@
     </row>
     <row r="56" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0000000000010232E-2</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="33">
         <v>77.150000000000006</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>52</v>
+      <c r="C56" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="E56">
         <v>173.23</v>
@@ -2123,17 +2432,17 @@
     </row>
     <row r="57" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="33">
         <v>77.16</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>53</v>
+      <c r="C57" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="E57">
         <v>172.57</v>
@@ -2141,17 +2450,17 @@
     </row>
     <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0000000000006253E-2</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="33">
         <v>77.2</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>54</v>
+      <c r="C58" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="E58">
         <v>171.92</v>
@@ -2159,17 +2468,17 @@
     </row>
     <row r="59" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85999999999999943</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="33">
         <v>78.06</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>55</v>
+      <c r="C59" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="E59">
         <v>156.5</v>
@@ -2177,17 +2486,17 @@
     </row>
     <row r="60" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23000000000000398</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="33">
         <v>78.290000000000006</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>56</v>
+      <c r="C60" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="E60">
         <v>137.47</v>
@@ -2195,17 +2504,17 @@
     </row>
     <row r="61" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9999999999998295E-2</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="33">
         <v>78.37</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>57</v>
+      <c r="C61" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="E61">
         <v>143.69999999999999</v>
@@ -2213,17 +2522,17 @@
     </row>
     <row r="62" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9999999999992042E-2</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="33">
         <v>78.41</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>58</v>
+      <c r="C62" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="E62">
         <v>142.72</v>
@@ -2231,17 +2540,17 @@
     </row>
     <row r="63" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15999999999999659</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="33">
         <v>78.569999999999993</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>59</v>
+      <c r="C63" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="E63">
         <v>140.41999999999999</v>
@@ -2249,17 +2558,17 @@
     </row>
     <row r="64" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28000000000000114</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="33">
         <v>78.849999999999994</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>60</v>
+      <c r="C64" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="E64">
         <v>144.69</v>
@@ -2267,17 +2576,17 @@
     </row>
     <row r="65" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9100000000000108</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="33">
         <v>86.76</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>61</v>
+      <c r="C65" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="E65">
         <v>175.85</v>
@@ -2285,17 +2594,17 @@
     </row>
     <row r="66" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4399999999999977</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="33">
         <v>90.2</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>62</v>
+      <c r="C66" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="E66">
         <v>158.46</v>
@@ -2303,17 +2612,17 @@
     </row>
     <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A67:A98" si="2">B67-B66</f>
         <v>4.4599999999999937</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="33">
         <v>94.66</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>63</v>
+      <c r="C67" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="E67">
         <v>155.51</v>
@@ -2321,17 +2630,17 @@
     </row>
     <row r="68" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <f t="shared" ref="A68:A131" si="1">B68-B67</f>
+        <f t="shared" si="2"/>
         <v>0.49000000000000909</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="33">
         <v>95.15</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>64</v>
+      <c r="C68" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="E68">
         <v>159.12</v>
@@ -2339,17 +2648,17 @@
     </row>
     <row r="69" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14000000000000057</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="33">
         <v>95.29</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>62</v>
+      <c r="C69" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="E69">
         <v>158.46</v>
@@ -2357,35 +2666,35 @@
     </row>
     <row r="70" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3499999999999943</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="33">
         <v>98.64</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>65</v>
+      <c r="C70" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="E70">
         <v>161.41999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A71" s="12">
-        <f t="shared" si="1"/>
+      <c r="A71" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="31">
         <v>98.64</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>66</v>
+      <c r="C71" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="E71">
         <v>161.41999999999999</v>
@@ -2393,17 +2702,17 @@
     </row>
     <row r="72" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12999999999999545</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="33">
         <v>98.77</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>67</v>
+      <c r="C72" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>66</v>
       </c>
       <c r="E72">
         <v>166.67</v>
@@ -2411,17 +2720,17 @@
     </row>
     <row r="73" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.46000000000000796</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="33">
         <v>99.23</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>68</v>
+      <c r="C73" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="E73">
         <v>163.38999999999999</v>
@@ -2429,17 +2738,17 @@
     </row>
     <row r="74" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81000000000000227</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="33">
         <v>100.04</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>69</v>
+      <c r="C74" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>68</v>
       </c>
       <c r="E74">
         <v>157.81</v>
@@ -2447,17 +2756,17 @@
     </row>
     <row r="75" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.269999999999996</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="33">
         <v>101.31</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>70</v>
+      <c r="C75" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>69</v>
       </c>
       <c r="E75">
         <v>67.91</v>
@@ -2465,17 +2774,17 @@
     </row>
     <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26999999999999602</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="33">
         <v>101.58</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>71</v>
+      <c r="C76" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="E76">
         <v>165.68</v>
@@ -2483,17 +2792,17 @@
     </row>
     <row r="77" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21999999999999886</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="33">
         <v>101.8</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>72</v>
+      <c r="C77" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="E77">
         <v>167.65</v>
@@ -2501,17 +2810,17 @@
     </row>
     <row r="78" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000000000000284</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="33">
         <v>102.5</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>73</v>
+      <c r="C78" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="E78">
         <v>191.6</v>
@@ -2519,17 +2828,17 @@
     </row>
     <row r="79" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4699999999999989</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="33">
         <v>105.97</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>74</v>
+      <c r="C79" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>73</v>
       </c>
       <c r="E79">
         <v>240.16</v>
@@ -2537,17 +2846,17 @@
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7000000000000028</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="33">
         <v>107.67</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>75</v>
+      <c r="C80" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="E80">
         <v>210.96</v>
@@ -2555,17 +2864,17 @@
     </row>
     <row r="81" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62999999999999545</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="33">
         <v>108.3</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>76</v>
+      <c r="C81" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="E81">
         <v>230.64</v>
@@ -2573,17 +2882,17 @@
     </row>
     <row r="82" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="33">
         <v>109.1</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>77</v>
+      <c r="C82" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="E82">
         <v>184.71</v>
@@ -2591,17 +2900,17 @@
     </row>
     <row r="83" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8200000000000074</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="33">
         <v>112.92</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>78</v>
+      <c r="C83" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="E83">
         <v>238.85</v>
@@ -2609,17 +2918,17 @@
     </row>
     <row r="84" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4200000000000017</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="33">
         <v>120.34</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>79</v>
+      <c r="C84" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="E84">
         <v>171.92</v>
@@ -2627,17 +2936,17 @@
     </row>
     <row r="85" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6299999999999955</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="33">
         <v>123.97</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>80</v>
+      <c r="C85" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="E85">
         <v>165.68</v>
@@ -2645,35 +2954,35 @@
     </row>
     <row r="86" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54000000000000625</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="33">
         <v>124.51</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>81</v>
+      <c r="C86" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="E86">
         <v>176.84</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A87" s="12">
-        <f t="shared" si="1"/>
+      <c r="A87" s="6">
+        <f t="shared" si="2"/>
         <v>0.19999999999998863</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="31">
         <v>124.71</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>82</v>
+      <c r="C87" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>191</v>
       </c>
       <c r="E87">
         <v>176.18</v>
@@ -2681,17 +2990,17 @@
     </row>
     <row r="88" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22000000000001307</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="33">
         <v>124.93</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>83</v>
+      <c r="C88" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="E88">
         <v>176.84</v>
@@ -2699,17 +3008,17 @@
     </row>
     <row r="89" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53999999999999204</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="33">
         <v>125.47</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>79</v>
+      <c r="C89" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="E89">
         <v>165.35</v>
@@ -2717,17 +3026,17 @@
     </row>
     <row r="90" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6200000000000045</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="33">
         <v>129.09</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>84</v>
+      <c r="C90" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="E90">
         <v>171.92</v>
@@ -2735,17 +3044,17 @@
     </row>
     <row r="91" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4300000000000068</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="33">
         <v>136.52000000000001</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>77</v>
+      <c r="C91" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="E91">
         <v>238.52</v>
@@ -2753,17 +3062,17 @@
     </row>
     <row r="92" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8199999999999932</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="33">
         <v>140.34</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>76</v>
+      <c r="C92" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="E92">
         <v>184.71</v>
@@ -2771,17 +3080,17 @@
     </row>
     <row r="93" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79999999999998295</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="33">
         <v>141.13999999999999</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>85</v>
+      <c r="C93" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="E93">
         <v>230.64</v>
@@ -2789,17 +3098,17 @@
     </row>
     <row r="94" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5700000000000216</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="33">
         <v>141.71</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>86</v>
+      <c r="C94" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="E94">
         <v>215.22</v>
@@ -2807,17 +3116,17 @@
     </row>
     <row r="95" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8400000000000034</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="33">
         <v>143.55000000000001</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>87</v>
+      <c r="C95" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="E95">
         <v>250</v>
@@ -2825,17 +3134,17 @@
     </row>
     <row r="96" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999829</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="33">
         <v>147.35</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>72</v>
+      <c r="C96" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="E96">
         <v>187.01</v>
@@ -2843,17 +3152,17 @@
     </row>
     <row r="97" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30000000000001137</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="33">
         <v>147.65</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>71</v>
+      <c r="C97" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="E97">
         <v>167.65</v>
@@ -2861,17 +3170,17 @@
     </row>
     <row r="98" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22999999999998977</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="33">
         <v>147.88</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>88</v>
+      <c r="C98" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="E98">
         <v>165.68</v>
@@ -2879,17 +3188,17 @@
     </row>
     <row r="99" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A99:A130" si="3">B99-B98</f>
         <v>0.27000000000001023</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="33">
         <v>148.15</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>89</v>
+      <c r="C99" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="E99">
         <v>68.239999999999995</v>
@@ -2897,17 +3206,17 @@
     </row>
     <row r="100" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2699999999999818</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="33">
         <v>149.41999999999999</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>68</v>
+      <c r="C100" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="E100">
         <v>157.81</v>
@@ -2915,17 +3224,17 @@
     </row>
     <row r="101" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.81000000000000227</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="33">
         <v>150.22999999999999</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>67</v>
+      <c r="C101" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>66</v>
       </c>
       <c r="E101">
         <v>163.38999999999999</v>
@@ -2933,17 +3242,17 @@
     </row>
     <row r="102" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45000000000001705</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="33">
         <v>150.68</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>90</v>
+      <c r="C102" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E102">
         <v>166.67</v>
@@ -2951,17 +3260,17 @@
     </row>
     <row r="103" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.44999999999998863</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="33">
         <v>151.13</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>91</v>
+      <c r="C103" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="E103">
         <v>162.72999999999999</v>
@@ -2969,35 +3278,35 @@
     </row>
     <row r="104" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1899999999999977</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="33">
         <v>159.32</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>92</v>
+      <c r="C104" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="E104">
         <v>192.26</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
-        <f t="shared" si="1"/>
+    <row r="105" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <f t="shared" si="3"/>
         <v>0.87999999999999545</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="31">
         <v>160.19999999999999</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>93</v>
+      <c r="C105" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="E105">
         <v>151.9</v>
@@ -3005,17 +3314,17 @@
     </row>
     <row r="106" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.43000000000000682</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106" s="33">
         <v>160.63</v>
       </c>
-      <c r="C106" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>94</v>
+      <c r="C106" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="E106">
         <v>164.7</v>
@@ -3023,17 +3332,17 @@
     </row>
     <row r="107" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.75999999999999091</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="33">
         <v>161.38999999999999</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>95</v>
+      <c r="C107" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="E107">
         <v>172.9</v>
@@ -3041,17 +3350,17 @@
     </row>
     <row r="108" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5300000000000011</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="33">
         <v>162.91999999999999</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>96</v>
+      <c r="C108" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="E108">
         <v>170.6</v>
@@ -3059,17 +3368,17 @@
     </row>
     <row r="109" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2600000000000193</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="33">
         <v>164.18</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>97</v>
+      <c r="C109" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="E109">
         <v>220.14</v>
@@ -3077,17 +3386,17 @@
     </row>
     <row r="110" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2199999999999989</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="33">
         <v>166.4</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>98</v>
+      <c r="C110" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="E110">
         <v>199.48</v>
@@ -3095,17 +3404,17 @@
     </row>
     <row r="111" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25999999999999091</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="33">
         <v>166.66</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>99</v>
+      <c r="C111" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="E111">
         <v>199.15</v>
@@ -3113,17 +3422,17 @@
     </row>
     <row r="112" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.58000000000001251</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="33">
         <v>167.24</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>100</v>
+      <c r="C112" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="E112">
         <v>219.49</v>
@@ -3131,17 +3440,17 @@
     </row>
     <row r="113" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <f t="shared" si="1"/>
-        <v>4.4099999999999966</v>
-      </c>
-      <c r="B113" s="5">
-        <v>171.65</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>101</v>
+        <f t="shared" si="3"/>
+        <v>3.2800000000000011</v>
+      </c>
+      <c r="B113" s="33">
+        <v>170.52</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>195</v>
       </c>
       <c r="E113">
         <v>271.98</v>
@@ -3149,17 +3458,17 @@
     </row>
     <row r="114" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <f t="shared" si="1"/>
-        <v>3.0900000000000034</v>
-      </c>
-      <c r="B114" s="5">
-        <v>174.74</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>1.1299999999999955</v>
+      </c>
+      <c r="B114" s="33">
+        <v>171.65</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="E114">
         <v>203.41</v>
@@ -3167,17 +3476,17 @@
     </row>
     <row r="115" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <f t="shared" si="1"/>
-        <v>0.59999999999999432</v>
-      </c>
-      <c r="B115" s="5">
-        <v>175.34</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>103</v>
+        <f t="shared" si="3"/>
+        <v>3.0900000000000034</v>
+      </c>
+      <c r="B115" s="33">
+        <v>174.74</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="E115">
         <v>210.96</v>
@@ -3185,17 +3494,17 @@
     </row>
     <row r="116" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18000000000000682</v>
-      </c>
-      <c r="B116" s="5">
-        <v>175.52</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>104</v>
+        <f t="shared" si="3"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="B116" s="33">
+        <v>175.34</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="E116">
         <v>190.94</v>
@@ -3203,17 +3512,17 @@
     </row>
     <row r="117" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <f t="shared" si="1"/>
-        <v>0.73999999999998067</v>
-      </c>
-      <c r="B117" s="5">
-        <v>176.26</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>0.18000000000000682</v>
+      </c>
+      <c r="B117" s="33">
+        <v>175.52</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>98</v>
       </c>
       <c r="E117">
         <v>170.28</v>
@@ -3221,14 +3530,17 @@
     </row>
     <row r="118" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <f t="shared" si="1"/>
-        <v>1.210000000000008</v>
-      </c>
-      <c r="B118" s="5">
-        <v>177.47</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>0.73999999999998067</v>
+      </c>
+      <c r="B118" s="33">
+        <v>176.26</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="E118">
         <v>181.76</v>
@@ -3236,33 +3548,35 @@
     </row>
     <row r="119" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1400000000000148</v>
-      </c>
-      <c r="B119" s="5">
+        <f t="shared" si="3"/>
+        <v>2.3500000000000227</v>
+      </c>
+      <c r="B119" s="33">
         <v>178.61</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>107</v>
+      <c r="C119" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="E119">
         <v>166.01</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A120" s="12">
-        <f t="shared" si="1"/>
+    <row r="120" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <f t="shared" si="3"/>
         <v>3.1099999999999852</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="31">
         <v>181.72</v>
       </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="8" t="s">
-        <v>108</v>
+      <c r="C120" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D120" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="E120">
         <v>166.01</v>
@@ -3270,17 +3584,17 @@
     </row>
     <row r="121" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14000000000001478</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121" s="33">
         <v>181.86</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>17</v>
+      <c r="C121" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="E121">
         <v>164.37</v>
@@ -3288,17 +3602,17 @@
     </row>
     <row r="122" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.41999999999998749</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122" s="33">
         <v>182.28</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>109</v>
+      <c r="C122" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="E122">
         <v>164.37</v>
@@ -3306,17 +3620,17 @@
     </row>
     <row r="123" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0099999999999909</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123" s="33">
         <v>183.29</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>110</v>
+      <c r="C123" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="E123">
         <v>170.28</v>
@@ -3324,17 +3638,17 @@
     </row>
     <row r="124" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5400000000000205</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B124" s="33">
         <v>185.83</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>111</v>
+      <c r="C124" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="E124">
         <v>172.57</v>
@@ -3342,17 +3656,17 @@
     </row>
     <row r="125" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11999999999997613</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125" s="33">
         <v>185.95</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>111</v>
+      <c r="C125" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="E125">
         <v>173.56</v>
@@ -3360,17 +3674,17 @@
     </row>
     <row r="126" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3900000000000148</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="33">
         <v>187.34</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>111</v>
+      <c r="C126" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="E126">
         <v>176.18</v>
@@ -3378,17 +3692,17 @@
     </row>
     <row r="127" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.039999999999992</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="33">
         <v>193.38</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>112</v>
+      <c r="C127" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="E127">
         <v>183.4</v>
@@ -3396,32 +3710,35 @@
     </row>
     <row r="128" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7700000000000102</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="33">
         <v>200.15</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>113</v>
+      <c r="C128" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="E128">
         <v>200.79</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
-        <f t="shared" si="1"/>
+      <c r="A129" s="7">
+        <f t="shared" si="3"/>
         <v>0.28000000000000114</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="35">
         <v>200.43</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>114</v>
+      <c r="C129" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="E129">
         <v>202.1</v>
@@ -3429,17 +3746,17 @@
     </row>
     <row r="130" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9999999999992042E-2</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="33">
         <v>200.47</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>115</v>
+      <c r="C130" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="E130">
         <v>209.65</v>
@@ -3447,17 +3764,17 @@
     </row>
     <row r="131" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A131:A162" si="4">B131-B130</f>
         <v>0.18999999999999773</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="33">
         <v>200.66</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>116</v>
+      <c r="C131" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="E131">
         <v>213.91</v>
@@ -3465,17 +3782,17 @@
     </row>
     <row r="132" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <f t="shared" ref="A132:A167" si="2">B132-B131</f>
+        <f t="shared" si="4"/>
         <v>0.11000000000001364</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132" s="33">
         <v>200.77</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>117</v>
+      <c r="C132" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="E132">
         <v>219.82</v>
@@ -3483,17 +3800,17 @@
     </row>
     <row r="133" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12999999999999545</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="33">
         <v>200.9</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>118</v>
+      <c r="C133" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="E133">
         <v>213.58</v>
@@ -3501,17 +3818,17 @@
     </row>
     <row r="134" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134" s="33">
         <v>200.96</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>119</v>
+      <c r="C134" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="E134">
         <v>184.38</v>
@@ -3519,17 +3836,17 @@
     </row>
     <row r="135" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1599999999999966</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135" s="33">
         <v>202.12</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>120</v>
+      <c r="C135" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D135" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="E135">
         <v>200.46</v>
@@ -3537,17 +3854,17 @@
     </row>
     <row r="136" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94999999999998863</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136" s="33">
         <v>203.07</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>120</v>
+      <c r="C136" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="E136">
         <v>215.22</v>
@@ -3555,17 +3872,17 @@
     </row>
     <row r="137" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.43999999999999773</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137" s="33">
         <v>203.51</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>121</v>
+      <c r="C137" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D137" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="E137">
         <v>217.52</v>
@@ -3573,17 +3890,17 @@
     </row>
     <row r="138" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3700000000000045</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138" s="33">
         <v>205.88</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>122</v>
+      <c r="C138" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D138" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="E138">
         <v>229.66</v>
@@ -3591,17 +3908,17 @@
     </row>
     <row r="139" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9000000000000057</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139" s="33">
         <v>208.78</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>123</v>
+      <c r="C139" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="E139">
         <v>224.74</v>
@@ -3609,17 +3926,17 @@
     </row>
     <row r="140" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25999999999999091</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140" s="33">
         <v>209.04</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>124</v>
+      <c r="C140" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="E140">
         <v>228.35</v>
@@ -3627,17 +3944,17 @@
     </row>
     <row r="141" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.90999999999999659</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141" s="33">
         <v>209.95</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>125</v>
+      <c r="C141" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D141" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="E141">
         <v>227.03</v>
@@ -3645,17 +3962,17 @@
     </row>
     <row r="142" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.89000000000001478</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B142" s="33">
         <v>210.84</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>126</v>
+      <c r="C142" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>118</v>
       </c>
       <c r="E142">
         <v>224.41</v>
@@ -3663,53 +3980,53 @@
     </row>
     <row r="143" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <f t="shared" si="2"/>
-        <v>19.049999999999983</v>
-      </c>
-      <c r="B143" s="5">
-        <v>229.89</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>127</v>
+        <f t="shared" si="4"/>
+        <v>6.1500000000000057</v>
+      </c>
+      <c r="B143" s="33">
+        <v>216.99</v>
+      </c>
+      <c r="C143" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>198</v>
       </c>
       <c r="E143">
         <v>313.32</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A144" s="12">
-        <f t="shared" si="2"/>
-        <v>0.18000000000000682</v>
-      </c>
-      <c r="B144" s="6">
-        <v>230.07</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>128</v>
+    <row r="144" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <f t="shared" si="4"/>
+        <v>12.899999999999977</v>
+      </c>
+      <c r="B144" s="33">
+        <v>229.89</v>
+      </c>
+      <c r="C144" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="E144">
         <v>311.02</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
-        <f t="shared" si="2"/>
-        <v>0.37999999999999545</v>
-      </c>
-      <c r="B145" s="5">
-        <v>230.45</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>129</v>
+    <row r="145" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A145" s="6">
+        <f t="shared" si="4"/>
+        <v>0.18000000000000682</v>
+      </c>
+      <c r="B145" s="31">
+        <v>230.07</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="E145">
         <v>313.64999999999998</v>
@@ -3717,17 +4034,17 @@
     </row>
     <row r="146" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
-        <f t="shared" si="2"/>
-        <v>0.31000000000000227</v>
-      </c>
-      <c r="B146" s="5">
-        <v>230.76</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>130</v>
+        <f t="shared" si="4"/>
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="B146" s="33">
+        <v>230.45</v>
+      </c>
+      <c r="C146" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D146" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="E146">
         <v>313.32</v>
@@ -3735,17 +4052,17 @@
     </row>
     <row r="147" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <f t="shared" si="2"/>
-        <v>0.49000000000000909</v>
-      </c>
-      <c r="B147" s="5">
-        <v>231.25</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>131</v>
+        <f t="shared" si="4"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="B147" s="33">
+        <v>230.76</v>
+      </c>
+      <c r="C147" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="E147">
         <v>317.91000000000003</v>
@@ -3753,17 +4070,17 @@
     </row>
     <row r="148" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <f t="shared" si="2"/>
-        <v>7.8700000000000045</v>
-      </c>
-      <c r="B148" s="5">
-        <v>239.12</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>0.49000000000000909</v>
+      </c>
+      <c r="B148" s="33">
+        <v>231.25</v>
+      </c>
+      <c r="C148" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="E148">
         <v>373.69</v>
@@ -3771,16 +4088,16 @@
     </row>
     <row r="149" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <f t="shared" si="2"/>
-        <v>0.96999999999999886</v>
-      </c>
-      <c r="B149" s="5">
-        <v>240.09</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D149" s="2" t="s">
+        <f t="shared" si="4"/>
+        <v>7.8700000000000045</v>
+      </c>
+      <c r="B149" s="33">
+        <v>239.12</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D149" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E149">
@@ -3789,53 +4106,53 @@
     </row>
     <row r="150" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <f t="shared" si="2"/>
-        <v>1.4399999999999977</v>
-      </c>
-      <c r="B150" s="5">
-        <v>241.53</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>132</v>
+        <f t="shared" si="4"/>
+        <v>0.96999999999999886</v>
+      </c>
+      <c r="B150" s="33">
+        <v>240.09</v>
+      </c>
+      <c r="C150" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="E150">
         <v>392.72</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A151" s="12">
-        <f t="shared" si="2"/>
-        <v>0.33000000000001251</v>
-      </c>
-      <c r="B151" s="6">
-        <v>241.86</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>133</v>
+    <row r="151" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <f t="shared" si="4"/>
+        <v>1.4399999999999977</v>
+      </c>
+      <c r="B151" s="33">
+        <v>241.53</v>
+      </c>
+      <c r="C151" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D151" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="E151">
         <v>399.93</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
-        <f t="shared" si="2"/>
-        <v>2.8699999999999761</v>
-      </c>
-      <c r="B152" s="5">
-        <v>244.73</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>134</v>
+    <row r="152" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A152" s="6">
+        <f t="shared" si="4"/>
+        <v>0.33000000000001251</v>
+      </c>
+      <c r="B152" s="31">
+        <v>241.86</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D152" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="E152">
         <v>419.29</v>
@@ -3843,17 +4160,17 @@
     </row>
     <row r="153" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <f t="shared" si="2"/>
-        <v>0.53000000000000114</v>
-      </c>
-      <c r="B153" s="5">
-        <v>245.26</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>134</v>
+        <f t="shared" si="4"/>
+        <v>2.8699999999999761</v>
+      </c>
+      <c r="B153" s="33">
+        <v>244.73</v>
+      </c>
+      <c r="C153" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="E153">
         <v>411.75</v>
@@ -3861,17 +4178,17 @@
     </row>
     <row r="154" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <f t="shared" si="2"/>
-        <v>0.27000000000001023</v>
-      </c>
-      <c r="B154" s="5">
-        <v>245.53</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>135</v>
+        <f t="shared" si="4"/>
+        <v>0.53000000000000114</v>
+      </c>
+      <c r="B154" s="33">
+        <v>245.26</v>
+      </c>
+      <c r="C154" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="E154">
         <v>412.4</v>
@@ -3879,17 +4196,17 @@
     </row>
     <row r="155" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <f t="shared" si="2"/>
-        <v>0.37000000000000455</v>
-      </c>
-      <c r="B155" s="5">
-        <v>245.9</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>136</v>
+        <f t="shared" si="4"/>
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="B155" s="33">
+        <v>245.53</v>
+      </c>
+      <c r="C155" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D155" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="E155">
         <v>410.1</v>
@@ -3897,17 +4214,17 @@
     </row>
     <row r="156" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9999999999909051E-3</v>
-      </c>
-      <c r="B156" s="5">
-        <v>245.91</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>137</v>
+        <f t="shared" si="4"/>
+        <v>0.37000000000000455</v>
+      </c>
+      <c r="B156" s="33">
+        <v>245.9</v>
+      </c>
+      <c r="C156" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D156" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="E156">
         <v>410.1</v>
@@ -3915,17 +4232,17 @@
     </row>
     <row r="157" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9999999999994316E-2</v>
-      </c>
-      <c r="B157" s="5">
-        <v>246.01</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>138</v>
+        <f t="shared" si="4"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="B157" s="33">
+        <v>245.91</v>
+      </c>
+      <c r="C157" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D157" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="E157">
         <v>408.79</v>
@@ -3933,17 +4250,17 @@
     </row>
     <row r="158" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <f t="shared" si="2"/>
-        <v>0.23000000000001819</v>
-      </c>
-      <c r="B158" s="5">
-        <v>246.24</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="B158" s="33">
+        <v>246.01</v>
+      </c>
+      <c r="C158" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="E158">
         <v>405.84</v>
@@ -3951,17 +4268,17 @@
     </row>
     <row r="159" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <f t="shared" si="2"/>
-        <v>9.0000000000003411E-2</v>
-      </c>
-      <c r="B159" s="5">
-        <v>246.33</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>139</v>
+        <f t="shared" si="4"/>
+        <v>0.23000000000001819</v>
+      </c>
+      <c r="B159" s="33">
+        <v>246.24</v>
+      </c>
+      <c r="C159" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D159" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="E159">
         <v>404.2</v>
@@ -3969,17 +4286,17 @@
     </row>
     <row r="160" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <f t="shared" si="2"/>
-        <v>0.50999999999999091</v>
-      </c>
-      <c r="B160" s="5">
-        <v>246.84</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>140</v>
+        <f t="shared" si="4"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="B160" s="33">
+        <v>246.33</v>
+      </c>
+      <c r="C160" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="E160">
         <v>396.98</v>
@@ -3987,17 +4304,17 @@
     </row>
     <row r="161" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <f t="shared" si="2"/>
-        <v>0.68999999999999773</v>
-      </c>
-      <c r="B161" s="5">
-        <v>247.53</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>141</v>
+        <f t="shared" si="4"/>
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="B161" s="33">
+        <v>246.84</v>
+      </c>
+      <c r="C161" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D161" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="E161">
         <v>395.34</v>
@@ -4005,17 +4322,17 @@
     </row>
     <row r="162" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <f t="shared" si="2"/>
-        <v>4.5099999999999909</v>
-      </c>
-      <c r="B162" s="5">
-        <v>252.04</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>142</v>
+        <f t="shared" si="4"/>
+        <v>0.68999999999999773</v>
+      </c>
+      <c r="B162" s="33">
+        <v>247.53</v>
+      </c>
+      <c r="C162" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D162" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="E162">
         <v>404.2</v>
@@ -4023,17 +4340,17 @@
     </row>
     <row r="163" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <f t="shared" si="2"/>
-        <v>1.0000000000019327E-2</v>
-      </c>
-      <c r="B163" s="5">
-        <v>252.05</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>143</v>
+        <f t="shared" ref="A163:A168" si="5">B163-B162</f>
+        <v>4.5099999999999909</v>
+      </c>
+      <c r="B163" s="33">
+        <v>252.04</v>
+      </c>
+      <c r="C163" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" s="28" t="s">
+        <v>134</v>
       </c>
       <c r="E163">
         <v>406.5</v>
@@ -4041,17 +4358,17 @@
     </row>
     <row r="164" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <f t="shared" si="2"/>
-        <v>0.44999999999998863</v>
-      </c>
-      <c r="B164" s="5">
-        <v>252.5</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>144</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000019327E-2</v>
+      </c>
+      <c r="B164" s="33">
+        <v>252.05</v>
+      </c>
+      <c r="C164" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="E164">
         <v>437.66</v>
@@ -4059,17 +4376,17 @@
     </row>
     <row r="165" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <f t="shared" si="2"/>
-        <v>0.77000000000001023</v>
-      </c>
-      <c r="B165" s="5">
-        <v>253.27</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>145</v>
+        <f t="shared" si="5"/>
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="B165" s="33">
+        <v>252.5</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D165" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="E165">
         <v>425.2</v>
@@ -4077,51 +4394,67 @@
     </row>
     <row r="166" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <f t="shared" si="2"/>
-        <v>0.10999999999998522</v>
-      </c>
-      <c r="B166" s="5">
-        <v>253.38</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>146</v>
+        <f t="shared" si="5"/>
+        <v>0.77000000000001023</v>
+      </c>
+      <c r="B166" s="33">
+        <v>253.27</v>
+      </c>
+      <c r="C166" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="E166">
         <v>424.54</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A167" s="12">
-        <f t="shared" si="2"/>
-        <v>6.0000000000002274E-2</v>
-      </c>
-      <c r="B167" s="6">
-        <v>253.44</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>147</v>
+    <row r="167" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <f t="shared" si="5"/>
+        <v>0.10999999999998522</v>
+      </c>
+      <c r="B167" s="33">
+        <v>253.38</v>
+      </c>
+      <c r="C167" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D167" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="E167">
         <v>424.54</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C170" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D171" s="2" t="s">
-        <v>183</v>
+    <row r="168" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A168" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="B168" s="31">
+        <v>253.44</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D168" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="E180" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="E181" s="3"/>
+      <c r="F181" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4132,10 +4465,494 @@
   <headerFooter>
     <oddHeader>&amp;CEugene - Forest Grove - Eugene 400k brevet, July 27 2018</oddHeader>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="105" max="3" man="1"/>
+  </rowBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="E2" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="23">
+        <v>12.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>G6+F6</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>A7*$F$2</f>
+        <v>12.5</v>
+      </c>
+      <c r="C7" s="16">
+        <f>D7-D6</f>
+        <v>30</v>
+      </c>
+      <c r="D7" s="8">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="25">
+        <f>H6+(C7/(A7*$F$2))/24</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G7" s="12">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" ref="H7:H17" si="0">G7+F7</f>
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B18" si="1">A8*$F$2</f>
+        <v>13.750000000000002</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" ref="C8:C18" si="2">D8-D7</f>
+        <v>27</v>
+      </c>
+      <c r="D8" s="8">
+        <v>57</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" ref="F8:F18" si="3">H7+(C8/(A8*$F$2))/24</f>
+        <v>1.0220959595959596</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0429292929292928</v>
+      </c>
+      <c r="I8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>13.750000000000002</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
+        <v>75</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="3"/>
+        <v>1.0974747474747473</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="0"/>
+        <v>1.107891414141414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>13.750000000000002</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" si="2"/>
+        <v>23.599999999999994</v>
+      </c>
+      <c r="D10" s="8">
+        <v>98.6</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="3"/>
+        <v>1.1794065656565655</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="0"/>
+        <v>1.1932954545454544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>13.750000000000002</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" si="2"/>
+        <v>26.100000000000009</v>
+      </c>
+      <c r="D11" s="8">
+        <v>124.7</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="3"/>
+        <v>1.2723863636363635</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="0"/>
+        <v>1.2932196969696967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" si="2"/>
+        <v>26.299999999999997</v>
+      </c>
+      <c r="D12" s="8">
+        <v>151</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="3"/>
+        <v>1.3808863636363633</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="0"/>
+        <v>1.3808863636363633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" si="2"/>
+        <v>9.1999999999999886</v>
+      </c>
+      <c r="D13" s="8">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="3"/>
+        <v>1.4115530303030299</v>
+      </c>
+      <c r="G13" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
+        <v>1.4323863636363632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.8</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="2"/>
+        <v>21.5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>181.7</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="3"/>
+        <v>1.5219696969696965</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5358585858585854</v>
+      </c>
+      <c r="I14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="2"/>
+        <v>18.700000000000017</v>
+      </c>
+      <c r="D15" s="8">
+        <v>200.4</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="3"/>
+        <v>1.5981919191919187</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6120808080808076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="2"/>
+        <v>29.699999999999989</v>
+      </c>
+      <c r="D16" s="8">
+        <v>230.1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="3"/>
+        <v>1.7110808080808075</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7249696969696964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" si="2"/>
+        <v>11.800000000000011</v>
+      </c>
+      <c r="D17" s="8">
+        <v>241.9</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="3"/>
+        <v>1.7643030303030298</v>
+      </c>
+      <c r="G17" s="12">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7712474747474742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.85</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>10.625</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="D18" s="19">
+        <v>253.4</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="3"/>
+        <v>1.8163455139631606</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="G6:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="2"/>
+</worksheet>
 </file>